--- a/flag/AQB_classification/powerSource/powerSource_notes_was_flag_OTUs_v3.xlsx
+++ b/flag/AQB_classification/powerSource/powerSource_notes_was_flag_OTUs_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/AQB_classification/powerSource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/powerSource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4253D8C9-560D-6147-ABB8-1385455608BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A8D39F-BD09-A848-8A20-CA06913A26CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="500" windowWidth="33640" windowHeight="24020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16700" yWindow="700" windowWidth="33640" windowHeight="24020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,8 @@
     <sheet name="Ishida_etal_PowerSource_matrix2" sheetId="4" r:id="rId4"/>
     <sheet name="powerSource2023" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="1768">
   <si>
     <t>Table S4. Species Analyzed In The Study.</t>
   </si>
@@ -4837,9 +4826,6 @@
   </si>
   <si>
     <t>tr|C4XNW2|C4XNW2_DESMR Chemotaxis protein MotB OS=Desulfovibrio magneticus (strain ATCC 700980 / DSM 13731 / RS-1) OX=573370 GN=motB PE=4 SV=1</t>
-  </si>
-  <si>
-    <t>Induction of the lateral flagellar system of Vibrio shilonii is an early event after inhibition of the sodium ion flux in the polar flagellum https://www.nrcresearchpress.com/doi/10.1139/cjm-2014-0579#.XbkUYanLfYU</t>
   </si>
   <si>
     <t>Baccillus megaterium</t>
@@ -4944,9 +4930,6 @@
     <t>AAU41985.1 Na+-coupled flagellar stator MotP [Bacillus licheniformis DSM 13 = ATCC 14580]</t>
   </si>
   <si>
-    <t>ADC48830.1 Flagellar motor rotation protein motP [Alkalihalophilus pseudofirmus OF4]</t>
-  </si>
-  <si>
     <t>CAB13242.1 motility protein A; MotA component of the H+-coupled stator flagellum complex [Bacillus subtilis subsp. subtilis str. 168]
 UUH67684.1 flagellar motor stator protein MotA [Bacillus subtilis subsp. natto]
 BAI84979.1 flagellar motor protein MotA [Bacillus subtilis subsp. natto BEST195]</t>
@@ -5029,15 +5012,6 @@
     <t>TCA-MotA2, likely H+ powered-GAK43333.1 flagellar motor protein MotA [Paenibacillus sp. TCA20]</t>
   </si>
   <si>
-    <t>Bacillus pseudofirmus OF4</t>
-  </si>
-  <si>
-    <t>alkaliphilic B. pseudofirmus OF4, which grows optimally above pH 10and the minimum pH value is approximately 7.5 (Guffanti et al. 1986). We named this stator protein MotP/MotS (pH and sodium) (Ito et al. 2004).</t>
-  </si>
-  <si>
-    <t>Ito_Takahashi_2017_Extremophiles_Ca2_bivalent_cations_named_MotPMotS</t>
-  </si>
-  <si>
     <t>BAI86479.1 flagellar motor protein MotS [Bacillus subtilis subsp. natto BEST195] ;  aka YTXD_BACSU</t>
   </si>
   <si>
@@ -5063,9 +5037,6 @@
     <t>AAD35759.1</t>
   </si>
   <si>
-    <t xml:space="preserve">EDR32241.1 </t>
-  </si>
-  <si>
     <t>ACM24086.1</t>
   </si>
   <si>
@@ -5111,12 +5082,6 @@
     <t>AOP58989.1 flagellar motor protein [Pseudomonas aeruginosa]'</t>
   </si>
   <si>
-    <t>HmaybeCHECK</t>
-  </si>
-  <si>
-    <t>NaCHECK</t>
-  </si>
-  <si>
     <t>AOP58989.1</t>
   </si>
   <si>
@@ -5180,9 +5145,6 @@
     <t>AGH77405.1</t>
   </si>
   <si>
-    <t>CHECK</t>
-  </si>
-  <si>
     <t>?-BAH74758.1 chemotaxis protein MotA [Solidesulfovibrio magneticus RS-1]</t>
   </si>
   <si>
@@ -5207,9 +5169,6 @@
     <t>BAH74758.1</t>
   </si>
   <si>
-    <t>Na+CHECK</t>
-  </si>
-  <si>
     <t>Firmicutes|_||AAS43541.1|MotA [Bacillus cereus ATCC 10987]</t>
   </si>
   <si>
@@ -5261,15 +5220,6 @@
     <t>ABK38289.1</t>
   </si>
   <si>
-    <t>H+CHECK</t>
-  </si>
-  <si>
-    <t>Firmicutes|Na+||ADC48830.1|motP [Alkalihalophilus pseudofirmus OF4]</t>
-  </si>
-  <si>
-    <t>Na+BOTHCHECK</t>
-  </si>
-  <si>
     <t>BAC62899.1</t>
   </si>
   <si>
@@ -5349,6 +5299,53 @@
   </si>
   <si>
     <t>(no close matches on BLAST; genome may have issues)</t>
+  </si>
+  <si>
+    <t>EDR32241.1</t>
+  </si>
+  <si>
+    <t>MotA</t>
+  </si>
+  <si>
+    <t>Na+PROB</t>
+  </si>
+  <si>
+    <t>Yael González, Laura Camarena, Georges Dreyfus. Induction of the lateral flagellar system of Vibrio shilonii is an early event after inhibition of the sodium ion flux in the polar flagellum. Canadian Journal of Microbiology 2015, 61 (3) , 183-191. https://doi.org/10.1139/cjm-2014-0579</t>
+  </si>
+  <si>
+    <t>H+_hi_pH_N+</t>
+  </si>
+  <si>
+    <t>Na+Near</t>
+  </si>
+  <si>
+    <t>Na+Nearish</t>
+  </si>
+  <si>
+    <t>ADC48830.1 Flagellar motor rotation protein motP [Alkalihalophilus pseudofirmus OF4], or: Firmicutes|Na+||ADC48830.1|motP [Alkalihalophilus pseudofirmus OF4]	Na+BOTHCHECK</t>
+  </si>
+  <si>
+    <t>Figure 4 of: Fujinami et al. 2009, "Motility and chemotaxis in alkaliphilic Bacillus species"; alkaliphilic B. pseudofirmus OF4, which grows optimally above pH 10and the minimum pH value is approximately 7.5 (Guffanti et al. 1986). We named this stator protein MotP/MotS (pH and sodium) (Ito et al. 2004).</t>
+  </si>
+  <si>
+    <t>Extremely alkaphilic (pH&gt;10.5); sodium is the only source</t>
+  </si>
+  <si>
+    <t>H+suggested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"A phylogenetic tree of the stator proteins of the flagellar stator subunits MotB and MotS from Paenibacillus,
+Oceanobacillus, and Bacillus sp. and E. coli is shown (Fig. 4). The phylogenetic features of two stator proteins suggest that TCA-MotAB2 functions as an H+-type stator. However, TCA-MotAB1 belongs to a different stator
+cluster from the H+-coupled MotAB or Na+-coupled MotPS complex (Fig. 4)." </t>
+  </si>
+  <si>
+    <t>Imazawa_etal_2016_SciRep_bivalent_cation_power_source.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see also Takahashi_Ito_2017, Ion Selectivity of the Flagellar Motors Derived from the Alkaliphilic Bacillus and Paenibacillus Species   </t>
+  </si>
+  <si>
+    <t>H+maybe</t>
   </si>
 </sst>
 </file>
@@ -5470,7 +5467,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5500,8 +5497,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -27116,7 +27114,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C953">
+  <sortState ref="A2:C953">
     <sortCondition ref="C2:C953"/>
     <sortCondition ref="B2:B953"/>
   </sortState>
@@ -27132,18 +27130,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF6989F-CC04-5F41-979C-86F376CE4C71}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="16"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>1542</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>1547</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>1535</v>
@@ -27189,13 +27190,11 @@
       <c r="O1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="22"/>
       <c r="Q1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>339</v>
       </c>
@@ -27206,10 +27205,10 @@
         <v>1549</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>51</v>
@@ -27218,7 +27217,6 @@
         <v>43</v>
       </c>
       <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
         <v>73</v>
       </c>
@@ -27233,11 +27231,8 @@
       <c r="O2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>454</v>
       </c>
@@ -27248,36 +27243,31 @@
         <v>1550</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>51</v>
+        <v>1606</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1767</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
       <c r="N3" s="16" t="s">
         <v>53</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>679</v>
       </c>
@@ -27288,10 +27278,10 @@
         <v>1552</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>51</v>
@@ -27300,24 +27290,19 @@
         <v>43</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="16"/>
       <c r="N4" s="16" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>340</v>
       </c>
@@ -27328,10 +27313,10 @@
         <v>1551</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>51</v>
@@ -27340,7 +27325,6 @@
         <v>43</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
       <c r="J5" s="16" t="s">
         <v>67</v>
       </c>
@@ -27355,11 +27339,8 @@
       <c r="O5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>458</v>
       </c>
@@ -27370,10 +27351,10 @@
         <v>1553</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>1610</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1611</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>51</v>
@@ -27382,7 +27363,6 @@
         <v>43</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
         <v>134</v>
       </c>
@@ -27397,11 +27377,8 @@
       <c r="O6" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>161</v>
       </c>
@@ -27412,10 +27389,10 @@
         <v>1554</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>51</v>
@@ -27424,7 +27401,6 @@
         <v>43</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
         <v>49</v>
       </c>
@@ -27439,11 +27415,8 @@
       <c r="O7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>343</v>
       </c>
@@ -27454,10 +27427,10 @@
         <v>1555</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>51</v>
@@ -27466,7 +27439,6 @@
         <v>43</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
         <v>142</v>
       </c>
@@ -27481,11 +27453,8 @@
       <c r="O8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>104</v>
       </c>
@@ -27496,10 +27465,10 @@
         <v>1556</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>51</v>
@@ -27525,11 +27494,8 @@
       <c r="O9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>328</v>
       </c>
@@ -27540,10 +27506,10 @@
         <v>1557</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>51</v>
@@ -27552,7 +27518,6 @@
         <v>43</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
         <v>182</v>
       </c>
@@ -27567,11 +27532,8 @@
       <c r="O10" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>328</v>
       </c>
@@ -27582,10 +27544,10 @@
         <v>1557</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>51</v>
@@ -27611,11 +27573,8 @@
       <c r="O11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>164</v>
       </c>
@@ -27625,9 +27584,8 @@
       <c r="C12" s="14" t="s">
         <v>1558</v>
       </c>
-      <c r="D12" s="16"/>
       <c r="E12" s="14" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>51</v>
@@ -27636,7 +27594,6 @@
         <v>43</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
       <c r="J12" s="16" t="s">
         <v>111</v>
       </c>
@@ -27651,11 +27608,8 @@
       <c r="O12" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>103</v>
       </c>
@@ -27666,10 +27620,10 @@
         <v>1559</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>51</v>
@@ -27678,7 +27632,6 @@
         <v>43</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
       <c r="J13" s="16" t="s">
         <v>206</v>
       </c>
@@ -27693,11 +27646,8 @@
       <c r="O13" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>162</v>
       </c>
@@ -27708,10 +27658,10 @@
         <v>1560</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>51</v>
@@ -27720,7 +27670,6 @@
         <v>43</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
         <v>87</v>
       </c>
@@ -27735,11 +27684,8 @@
       <c r="O14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>330</v>
       </c>
@@ -27749,9 +27695,8 @@
       <c r="C15" s="14" t="s">
         <v>1561</v>
       </c>
-      <c r="D15" s="16"/>
       <c r="E15" s="14" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>51</v>
@@ -27760,24 +27705,19 @@
         <v>43</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
         <v>221</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
       <c r="N15" s="16" t="s">
         <v>289</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>341</v>
       </c>
@@ -27787,9 +27727,8 @@
       <c r="C16" s="16" t="s">
         <v>1562</v>
       </c>
-      <c r="D16" s="16"/>
       <c r="E16" s="14" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>51</v>
@@ -27798,24 +27737,19 @@
         <v>43</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
       <c r="J16" s="16" t="s">
         <v>221</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
       <c r="N16" s="16" t="s">
         <v>289</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>154</v>
       </c>
@@ -27826,10 +27760,10 @@
         <v>1563</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>51</v>
@@ -27855,11 +27789,8 @@
       <c r="O17" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>160</v>
       </c>
@@ -27869,11 +27800,11 @@
       <c r="C18" s="16" t="s">
         <v>1564</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>1670</v>
+      <c r="D18" s="14" t="s">
+        <v>1753</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>51</v>
@@ -27890,18 +27821,14 @@
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="16"/>
       <c r="N18" s="16" t="s">
         <v>330</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>155</v>
       </c>
@@ -27912,10 +27839,10 @@
         <v>1565</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>51</v>
@@ -27924,7 +27851,6 @@
         <v>43</v>
       </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
       <c r="J19" s="16" t="s">
         <v>238</v>
       </c>
@@ -27939,11 +27865,8 @@
       <c r="O19" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>296</v>
       </c>
@@ -27954,19 +27877,18 @@
         <v>1566</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1543</v>
+        <v>1757</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
       <c r="J20" s="16" t="s">
         <v>66</v>
       </c>
@@ -27982,12 +27904,10 @@
         <v>258</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>1664</v>
-      </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>156</v>
       </c>
@@ -27998,10 +27918,10 @@
         <v>1567</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>1543</v>
@@ -28010,7 +27930,6 @@
         <v>43</v>
       </c>
       <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
         <v>168</v>
       </c>
@@ -28019,15 +27938,11 @@
       <c r="M21" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="N21" s="16"/>
       <c r="O21" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>450</v>
       </c>
@@ -28038,10 +27953,10 @@
         <v>1568</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>1543</v>
@@ -28067,11 +27982,8 @@
       <c r="O22" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>181</v>
       </c>
@@ -28082,10 +27994,10 @@
         <v>1569</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>162</v>
@@ -28094,7 +28006,6 @@
         <v>43</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
       <c r="J23" s="16" t="s">
         <v>64</v>
       </c>
@@ -28106,14 +28017,14 @@
       <c r="N23" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>530</v>
       </c>
@@ -28124,10 +28035,10 @@
         <v>1570</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>162</v>
@@ -28136,7 +28047,6 @@
         <v>43</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
         <v>198</v>
       </c>
@@ -28151,11 +28061,8 @@
       <c r="O24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>530</v>
       </c>
@@ -28166,10 +28073,10 @@
         <v>1570</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>162</v>
@@ -28178,7 +28085,6 @@
         <v>43</v>
       </c>
       <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
         <v>198</v>
       </c>
@@ -28193,11 +28099,8 @@
       <c r="O25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>381</v>
       </c>
@@ -28208,10 +28111,10 @@
         <v>1571</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>162</v>
@@ -28220,7 +28123,6 @@
         <v>43</v>
       </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
         <v>55</v>
       </c>
@@ -28229,15 +28131,11 @@
       <c r="M26" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="N26" s="16"/>
       <c r="O26" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>414</v>
       </c>
@@ -28248,28 +28146,16 @@
         <v>1571</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>562</v>
       </c>
@@ -28280,10 +28166,10 @@
         <v>1572</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>162</v>
@@ -28292,7 +28178,6 @@
         <v>43</v>
       </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
       <c r="J28" s="16" t="s">
         <v>193</v>
       </c>
@@ -28307,11 +28192,8 @@
       <c r="O28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>511</v>
       </c>
@@ -28322,28 +28204,16 @@
         <v>1573</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>511</v>
       </c>
@@ -28354,19 +28224,18 @@
         <v>1573</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1686</v>
+        <v>1755</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
         <v>111</v>
       </c>
@@ -28381,11 +28250,8 @@
       <c r="O30" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>268</v>
       </c>
@@ -28396,10 +28262,10 @@
         <v>1574</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>162</v>
@@ -28408,7 +28274,6 @@
         <v>43</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
       <c r="J31" s="16" t="s">
         <v>73</v>
       </c>
@@ -28423,11 +28288,8 @@
       <c r="O31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>271</v>
       </c>
@@ -28438,19 +28300,18 @@
         <v>1575</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>1632</v>
+        <v>1760</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
       <c r="J32" s="14" t="s">
         <v>1546</v>
       </c>
@@ -28462,14 +28323,14 @@
       <c r="N32" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="O32" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O32" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>267</v>
       </c>
@@ -28477,13 +28338,13 @@
         <v>852</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>162</v>
@@ -28492,7 +28353,6 @@
         <v>43</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
       <c r="J33" s="16" t="s">
         <v>67</v>
       </c>
@@ -28508,12 +28368,10 @@
         <v>54</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>1663</v>
-      </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>266</v>
       </c>
@@ -28524,10 +28382,10 @@
         <v>1576</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>162</v>
@@ -28536,7 +28394,6 @@
         <v>43</v>
       </c>
       <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
       <c r="J34" s="16" t="s">
         <v>94</v>
       </c>
@@ -28551,11 +28408,8 @@
       <c r="O34" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>289</v>
       </c>
@@ -28566,10 +28420,10 @@
         <v>1577</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>162</v>
@@ -28595,65 +28449,33 @@
       <c r="O35" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>675</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>1260</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
       <c r="F36" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="24" t="s">
-        <v>1765</v>
-      </c>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O36" s="23" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>453</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
       <c r="F37" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>356</v>
       </c>
@@ -28664,10 +28486,10 @@
         <v>1580</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>162</v>
@@ -28676,7 +28498,6 @@
         <v>43</v>
       </c>
       <c r="H38" s="17"/>
-      <c r="I38" s="16"/>
       <c r="J38" s="16" t="s">
         <v>136</v>
       </c>
@@ -28691,11 +28512,8 @@
       <c r="O38" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>649</v>
       </c>
@@ -28706,10 +28524,10 @@
         <v>1581</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>162</v>
@@ -28718,22 +28536,17 @@
         <v>43</v>
       </c>
       <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
       <c r="J39" s="16" t="s">
         <v>212</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
-      <c r="M39" s="16"/>
       <c r="N39" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O39" s="16"/>
       <c r="P39" s="17"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>538</v>
       </c>
@@ -28744,38 +28557,34 @@
         <v>1582</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>1687</v>
+        <v>51</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
       <c r="J40" s="14" t="s">
         <v>185</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
-      <c r="M40" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>186</v>
+      <c r="M40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>1754</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>538</v>
       </c>
@@ -28786,10 +28595,10 @@
         <v>1582</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>162</v>
@@ -28798,7 +28607,6 @@
         <v>43</v>
       </c>
       <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
       <c r="J41" s="14" t="s">
         <v>185</v>
       </c>
@@ -28813,11 +28621,8 @@
       <c r="O41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>565</v>
       </c>
@@ -28828,10 +28633,10 @@
         <v>1583</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>162</v>
@@ -28848,18 +28653,14 @@
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
-      <c r="M42" s="16"/>
       <c r="N42" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O42" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>540</v>
       </c>
@@ -28870,10 +28671,10 @@
         <v>1584</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>162</v>
@@ -28899,11 +28700,8 @@
       <c r="O43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>183</v>
       </c>
@@ -28914,10 +28712,10 @@
         <v>1585</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>1539</v>
@@ -28926,7 +28724,6 @@
         <v>43</v>
       </c>
       <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
       <c r="J44" s="14" t="s">
         <v>59</v>
       </c>
@@ -28944,10 +28741,8 @@
       <c r="P44" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>303</v>
       </c>
@@ -28958,19 +28753,18 @@
         <v>1586</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1705</v>
+        <v>1763</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
       <c r="J45" s="16" t="s">
         <v>184</v>
       </c>
@@ -28979,16 +28773,17 @@
       <c r="M45" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
+      <c r="O45" s="14" t="s">
+        <v>1764</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B46" s="16" t="s">
         <v>1589</v>
       </c>
@@ -28996,10 +28791,10 @@
         <v>1587</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>1540</v>
@@ -29008,75 +28803,61 @@
         <v>43</v>
       </c>
       <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B47" s="14" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>1595</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
         <v>251</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
-      <c r="M47" s="16"/>
       <c r="N47" s="16" t="s">
         <v>53</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B48" s="14" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>1590</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G48" s="17"/>
+        <v>1755</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="H48" s="17"/>
       <c r="I48" s="3">
         <v>340</v>
@@ -29084,167 +28865,93 @@
       <c r="J48" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B49" s="16" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>1596</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16" t="s">
-        <v>1763</v>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B50" s="14" t="s">
+        <v>1750</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B51" s="16" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B52" s="16" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B53" s="16" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>1597</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
         <v>57</v>
       </c>
@@ -29252,19 +28959,18 @@
         <v>1588</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>1718</v>
+        <v>1758</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
       <c r="J54" s="14" t="s">
         <v>63</v>
       </c>
@@ -29283,10 +28989,8 @@
       <c r="Q54" s="16" t="s">
         <v>1594</v>
       </c>
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
         <v>57</v>
       </c>
@@ -29294,19 +28998,18 @@
         <v>1588</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>1718</v>
+        <v>1759</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
       <c r="J55" s="14" t="s">
         <v>63</v>
       </c>
@@ -29325,307 +29028,217 @@
       <c r="Q55" s="16" t="s">
         <v>1594</v>
       </c>
-      <c r="R55" s="16"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B56" s="14" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="N56" s="16"/>
       <c r="O56" s="14" t="s">
         <v>585</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>1668</v>
-      </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
         <v>1544</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
       <c r="J57" s="19" t="s">
         <v>202</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="18" t="s">
-        <v>1598</v>
-      </c>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
+      <c r="O57" s="14" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B58" s="16" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
       <c r="J58" s="19" t="s">
         <v>202</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="18" t="s">
-        <v>1598</v>
-      </c>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
+      <c r="O58" s="14" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B59" s="16" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B60" s="14" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="D60" s="16" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B61" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B62" s="14" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B63" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B64" s="16" t="s">
         <v>1731</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="14" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="14" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="14" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>1738</v>
-      </c>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="14" t="s">
-        <v>1660</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>1661</v>
-      </c>
-      <c r="R63" s="16"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14" t="s">
-        <v>1756</v>
-      </c>
       <c r="C64" s="14" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>1739</v>
+        <v>1578</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
+        <v>162</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="J64" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="N64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="P64" s="18" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
       <c r="B65" s="16" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="14" t="s">
-        <v>1645</v>
+        <v>1731</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>1633</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>162</v>
@@ -29634,639 +29247,559 @@
         <v>43</v>
       </c>
       <c r="H65" s="17"/>
-      <c r="I65" s="16"/>
       <c r="J65" s="16" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
-      <c r="M65" s="16"/>
       <c r="N65" s="16" t="s">
         <v>186</v>
       </c>
       <c r="O65" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P65" s="18" t="s">
-        <v>1634</v>
-      </c>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
+      <c r="Q65" s="16" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16" t="s">
-        <v>1635</v>
+      <c r="B66" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>1727</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q66" s="14" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B67" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q67" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G68" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16" t="s">
+      <c r="H68" s="17"/>
+      <c r="I68" s="14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="N68" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O66" s="16" t="s">
+      <c r="O68" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16" t="s">
-        <v>1656</v>
-      </c>
-      <c r="R66" s="16"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="14" t="s">
-        <v>1667</v>
-      </c>
-      <c r="R67" s="16"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="14" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="14" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="P68" s="17"/>
+      <c r="Q68" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="R68" s="21" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B69" s="16" t="s">
         <v>1742</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="R68" s="16"/>
-    </row>
-    <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C69" s="16"/>
       <c r="D69" s="16" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>1718</v>
+        <v>294</v>
       </c>
       <c r="G69" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H69" s="17"/>
       <c r="I69" s="14" t="s">
-        <v>1654</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="16"/>
+        <v>1652</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>269</v>
+      </c>
       <c r="N69" s="16" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="O69" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="R69" s="21" t="s">
-        <v>1653</v>
-      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
       <c r="B70" s="16" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C70" s="16"/>
+        <v>1742</v>
+      </c>
       <c r="D70" s="16" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>1736</v>
+        <v>292</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="17"/>
-      <c r="I70" s="14" t="s">
-        <v>1654</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="18" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F71" s="14" t="s">
         <v>1755</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
+      <c r="G71" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>301</v>
+      </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
-      <c r="M71" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="N71" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O71" s="16" t="s">
-        <v>298</v>
-      </c>
       <c r="P71" s="17"/>
-      <c r="Q71" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="R71" s="16"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="14" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G72" s="17" t="s">
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A75" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="3">
+        <v>83334</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="3">
+        <v>155864</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="3">
+        <v>217992</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="3">
+        <v>209261</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="3">
+        <v>601</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="3">
+        <v>602</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="14" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="14" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J72" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="16"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="3">
-        <v>83334</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3">
-        <v>155864</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="3">
-        <v>217992</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="3">
-        <v>209261</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="3">
-        <v>601</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="3">
-        <v>602</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="J82" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N82" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q82" s="17"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" t="s">
-        <v>162</v>
-      </c>
-      <c r="N83" t="s">
-        <v>163</v>
-      </c>
-      <c r="O83" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q83" s="4"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="3">
+        <v>198094</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
       <c r="I84" s="3">
-        <v>198094</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
+        <v>222523</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="3">
-        <v>222523</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
+        <v>226900</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
       <c r="I86" s="3">
-        <v>226900</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
+        <v>86665</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="3">
-        <v>86665</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
+        <v>1423</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3">
-        <v>1423</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="Q88" s="4"/>
+      <c r="Q88" s="17"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="Q89" s="4"/>
+      <c r="Q89" s="17"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="Q90" s="4"/>
+      <c r="J90" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J91" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
+      <c r="I91" s="3">
+        <v>672</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I92" s="3">
-        <v>672</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
+        <v>196600</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I93" s="3">
-        <v>196600</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
+      <c r="J93" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J94" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="3">
+        <v>229193</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
       <c r="I95" s="3">
-        <v>229193</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
+        <v>187410</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="3">
-        <v>187410</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="3">
+        <v>92829</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="P97" s="17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q97" s="17"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="3">
-        <v>92829</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="P98" s="4" t="s">
-        <v>1657</v>
-      </c>
-      <c r="Q98" s="4"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="P98" s="18" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q98" s="17"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="P99" s="7" t="s">
-        <v>1591</v>
-      </c>
-      <c r="Q99" s="4"/>
+      <c r="I99" s="3">
+        <v>882</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.15">
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="3">
-        <v>882</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
+        <v>85963</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="3">
-        <v>85963</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
+      <c r="J103" s="14" t="s">
+        <v>1593</v>
+      </c>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="J104" s="5" t="s">
-        <v>1593</v>
-      </c>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
+      <c r="J104" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="13" t="s">
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="P105" s="18" t="s">
         <v>250</v>
       </c>
+      <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="J106" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="P106" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q106" s="4"/>
-    </row>
-    <row r="107" spans="7:17" x14ac:dyDescent="0.15">
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P106" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="Q71" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="P99" r:id="rId3" display="https://bmcmicrobiol.biomedcentral.com/articles/10.1186/s12866-017-1083-6" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="Q68" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="P105" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="Q70" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="P98" r:id="rId3" display="https://bmcmicrobiol.biomedcentral.com/articles/10.1186/s12866-017-1083-6" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Q67" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
     <hyperlink ref="P44" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="P105" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="P58" r:id="rId7" location=".XbkUYanLfYU" display="https://www.nrcresearchpress.com/doi/10.1139/cjm-2014-0579#.XbkUYanLfYU" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="P65" r:id="rId8" display="https://www.scopus.com/record/display.uri?eid=2-s2.0-84983085041&amp;origin=inward&amp;txGid=30bb7dec00a079be213fdac4b5b6e946" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="P57" r:id="rId9" location=".XbkUYanLfYU" display="https://www.nrcresearchpress.com/doi/10.1139/cjm-2014-0579#.XbkUYanLfYU" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="P104" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="P64" r:id="rId7" display="https://www.scopus.com/record/display.uri?eid=2-s2.0-84983085041&amp;origin=inward&amp;txGid=30bb7dec00a079be213fdac4b5b6e946" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>